--- a/Resources/portfolio_holdings.xlsx
+++ b/Resources/portfolio_holdings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanleyazie/Desktop/group_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanleyazie/Desktop/group_project/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817C479A-A5FA-2840-A078-49BF0E97E194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22617ECA-86AC-1C4F-BE76-6ED76B5BFDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20440" yWindow="-19840" windowWidth="32760" windowHeight="18880" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
+    <workbookView xWindow="-22380" yWindow="-20140" windowWidth="32760" windowHeight="18880" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
     <sheet name="Orderbook" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="578">
   <si>
     <t>Country</t>
   </si>
@@ -1767,9 +1767,6 @@
     <t>Ticker</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>JPM</t>
   </si>
   <si>
@@ -1779,10 +1776,13 @@
     <t>DIS</t>
   </si>
   <si>
-    <t>BTC-USD</t>
-  </si>
-  <si>
     <t>ACN</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>crypto</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2203,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2267,7 +2267,7 @@
         <v>42005</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L8" si="0">H3*I3-J3</f>
+        <f t="shared" ref="L3:L7" si="0">H3*I3-J3</f>
         <v>1228.5</v>
       </c>
       <c r="M3" s="8" t="s">
@@ -2343,7 +2343,7 @@
         <v>42005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>18</v>
@@ -2377,7 +2377,7 @@
         <v>42005</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>18</v>
@@ -2411,7 +2411,7 @@
         <v>42005</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
@@ -2448,7 +2448,7 @@
         <v>576</v>
       </c>
       <c r="C7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="H7">
         <v>314.24</v>
@@ -2474,48 +2474,15 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>42005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>572</v>
-      </c>
-      <c r="C8" t="s">
-        <v>557</v>
-      </c>
-      <c r="H8" s="8">
-        <v>52.69</v>
-      </c>
-      <c r="I8" s="8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="0"/>
-        <v>526.9</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -2524,14 +2491,6 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2540,14 +2499,6 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2556,14 +2507,6 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
